--- a/biology/Zoologie/Enochrus/Enochrus.xlsx
+++ b/biology/Zoologie/Enochrus/Enochrus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enochrus est un genre d'insectes coléoptères de la famille des Hydrophilidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Enochrus est créé en 1859  par l'entomologiste américain James Thomson (1828-1897)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Enochrus est créé en 1859  par l'entomologiste américain James Thomson (1828-1897).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un coléoptère charognard de l'eau et le troisième plus grand genre d'hydrophiles avec 222 espèces dans six sous-genres dans le monde[2],[3],[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un coléoptère charognard de l'eau et le troisième plus grand genre d'hydrophiles avec 222 espèces dans six sous-genres dans le monde.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Sous genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Enochrus Thomson, 1859
@@ -610,7 +628,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces 67 espèces appartiennent au genre Enochrus :
 Enochrus aequalis (Sharp, 1882) i c g
@@ -680,7 +700,7 @@
 Enochrus tritus (Broun, 1880) g
 Enochrus variegatus Steinheil, 1869 g
 Enochrus vulgaris Steinheil, 1869 g
-Data sources : i = ITIS[6], c = Catalogue of Life[7], g = GBIF[8], b = Bugguide.net[9][6],[7],[8],[9]
+Data sources : i = ITIS, c = Catalogue of Life, g = GBIF, b = Bugguide.net
 </t>
         </is>
       </c>
@@ -709,9 +729,11 @@
           <t>Espèces fossiles</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles sont au nombre de huit[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles sont au nombre de huit :
 †Enochrus hamiltoni Horn, 1890
 †Enochrus innovatus Théobald, 1937
 †Enochrus lapsus Zhang, 1989
@@ -720,8 +742,43 @@
 †Enochrus quadripunctatus Herbst, 1797
 †Enochrus scudderi Wickham, 1909
 †Enochrus striatus Théobald, 1937
-Ancienneté
-Selon Paleobiology Database en 2023, les espèces fossiles trouvées se répartissent sur la période cénozoïque jusqu'à l'Éocène, pour le Phylhydrus primaevus[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Enochrus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enochrus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces fossiles</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ancienneté</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, les espèces fossiles trouvées se répartissent sur la période cénozoïque jusqu'à l'Éocène, pour le Phylhydrus primaevus.
 </t>
         </is>
       </c>
